--- a/File/DemoWeb.xlsx
+++ b/File/DemoWeb.xlsx
@@ -13,6 +13,7 @@
     <sheet name="APIDetailData" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="APIData" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="ObjectRepo" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="AppObjectRepo" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="273">
   <si>
     <t xml:space="preserve">rowid</t>
   </si>
@@ -38,6 +39,9 @@
     <t xml:space="preserve">browsername</t>
   </si>
   <si>
+    <t xml:space="preserve">IsBrowserStack</t>
+  </si>
+  <si>
     <t xml:space="preserve">demosite</t>
   </si>
   <si>
@@ -47,6 +51,9 @@
     <t xml:space="preserve">chrome</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">api</t>
   </si>
   <si>
@@ -59,7 +66,7 @@
     <t xml:space="preserve">demosite1</t>
   </si>
   <si>
-    <t xml:space="preserve">firefox</t>
+    <t xml:space="preserve">mobileD</t>
   </si>
   <si>
     <t xml:space="preserve">firstName</t>
@@ -113,6 +120,9 @@
     <t xml:space="preserve">CardCvc</t>
   </si>
   <si>
+    <t xml:space="preserve">SignUpSelectGender</t>
+  </si>
+  <si>
     <t xml:space="preserve">loginset</t>
   </si>
   <si>
@@ -122,7 +132,7 @@
     <t xml:space="preserve">Test</t>
   </si>
   <si>
-    <t xml:space="preserve">ps3@gmail.com</t>
+    <t xml:space="preserve">ps9@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sanvi@123</t>
@@ -149,7 +159,16 @@
     <t xml:space="preserve">03/31</t>
   </si>
   <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
     <t xml:space="preserve">loginset1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secret_sauce</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -789,6 +808,60 @@
   </si>
   <si>
     <t xml:space="preserve">//*[@id="__next"]/main/div/div[2]/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.EditText[@content-desc="test-Username"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.EditText[@content-desc="test-Password"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.TextView[@text="LOGIN"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.ImageView[@index="0"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.ImageView[@index="5"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlpPage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SideMenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plplogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.ImageView[@index="2"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plpitem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.ScrollView[@index="2"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.TextView[@text="Sauce Labs Backpack"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//android.widget.TextView[@text="PRODUCTS"]</t>
   </si>
 </sst>
 </file>
@@ -799,7 +872,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -873,6 +946,13 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -935,7 +1015,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -956,6 +1036,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -969,10 +1053,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1010,6 +1090,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1162,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF1C1C1C"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1089,20 +1173,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.47"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,6 +1199,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,13 +1209,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,13 +1226,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,13 +1243,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1177,13 +1274,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.5"/>
@@ -1194,184 +1291,190 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="999" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.01"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="R1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>33</v>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>7042117434</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>10052</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S2" s="11" t="n">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="T2" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>7042117434</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="9" t="n">
-        <v>7042117434</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="9" t="n">
+      <c r="P3" s="5" t="n">
         <v>10052</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="S3" s="12" t="n">
         <v>123</v>
@@ -1399,7 +1502,7 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.8"/>
@@ -1411,43 +1514,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,37 +1558,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,35 +1596,35 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,35 +1632,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,35 +1668,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="G5" s="14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,37 +1704,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="G6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,35 +1742,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,35 +1778,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1728,12 +1831,11 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.09"/>
   </cols>
@@ -1743,46 +1845,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,136 +1892,136 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="L3" s="5"/>
       <c r="M3" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1939,11 +2041,11 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.62"/>
@@ -1957,19 +2059,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,19 +2079,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,19 +2099,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,79 +2119,79 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>114</v>
+      <c r="B5" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>114</v>
+      <c r="B6" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>114</v>
+      <c r="B7" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,19 +2199,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,39 +2219,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>131</v>
+      <c r="B10" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,19 +2259,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,39 +2279,39 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>131</v>
+      <c r="B13" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,19 +2319,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,19 +2339,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,19 +2359,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,19 +2379,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,19 +2399,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,19 +2419,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,19 +2439,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,19 +2459,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,19 +2479,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,19 +2499,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,19 +2519,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,19 +2539,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,19 +2559,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>163</v>
+        <v>122</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,19 +2579,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,19 +2599,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>166</v>
+        <v>142</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,19 +2619,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,19 +2639,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>169</v>
+        <v>176</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,19 +2659,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,19 +2679,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>172</v>
+        <v>137</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,19 +2699,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,36 +2719,36 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>175</v>
+        <v>182</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,19 +2756,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,19 +2776,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,19 +2796,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,19 +2816,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,19 +2836,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,19 +2856,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="9" t="s">
         <v>192</v>
       </c>
+      <c r="C41" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="D41" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,19 +2876,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,19 +2896,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,19 +2916,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,19 +2936,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,19 +2956,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,19 +2976,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,19 +2996,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,19 +3016,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,19 +3036,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,19 +3056,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,19 +3076,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2994,19 +3096,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,19 +3116,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,19 +3136,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,19 +3156,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,19 +3176,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,19 +3196,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,19 +3216,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,19 +3236,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,19 +3256,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,19 +3276,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,19 +3296,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,19 +3316,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,19 +3336,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,19 +3356,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3278,4 +3380,234 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>